--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T12:58:08+00:00</t>
+    <t>2025-07-18T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:16:41+00:00</t>
+    <t>2025-07-18T13:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:28:33+00:00</t>
+    <t>2025-07-18T14:08:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:08:23+00:00</t>
+    <t>2025-07-21T08:20:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:20:20+00:00</t>
+    <t>2025-07-23T13:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:14:15+00:00</t>
+    <t>2025-07-24T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:40:01+00:00</t>
+    <t>2025-07-24T14:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:41:36+00:00</t>
+    <t>2025-07-25T06:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>Level</t>
@@ -136,15 +136,6 @@
   </si>
   <si>
     <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PLI</t>
-  </si>
-  <si>
-    <t>Patient local identifier</t>
   </si>
   <si>
     <t>PIN</t>
@@ -463,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,27 +476,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T06:57:33+00:00</t>
+    <t>2025-07-28T14:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:46:36+00:00</t>
+    <t>2025-07-28T15:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
